--- a/tatiana/es/about.xlsx
+++ b/tatiana/es/about.xlsx
@@ -5,10 +5,10 @@
   <sheets>
     <sheet state="visible" name="About" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="html_about" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="html_rev" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="html_main" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Rev" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="html_rev" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Main" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Rev" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="html_main" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -715,6 +715,153 @@
   &lt;/script&gt;
   &lt;script type="text/javascript" src="js/styling-2105.min.js"&gt;&lt;/script&gt;
   &lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Al contenido</t>
+  </si>
+  <si>
+    <t>Opiniones</t>
+  </si>
+  <si>
+    <t>El resultado de cualquier actividad es la gratitud de las personas con las que trabajas en una idea, por un solo propósito. He hecho mucho trabajo y ahora estoy feliz y orgullosa de presentarles comentarios sobre el proyecto de fitness, cuyo objetivo es una mujer moderna, exitosa y segura de sí misma. Este proyecto ha ayudado a muchas mujeres a creer en sí mismas, en sus propias fuerzas, a cambiar para mejor, a encontrar las formas deseadas, a aprender a comer de manera apropiada y saludable.</t>
+  </si>
+  <si>
+    <t>Comentarios sobre el programa de fitness.</t>
+  </si>
+  <si>
+    <t>Amanda, Winnipeg, Canadá</t>
+  </si>
+  <si>
+    <t>Acabo de terminar un proyecto. Durante mucho tiempo busqué algo similar y finalmente, gracias a mi amiga Natalia por la perseverancia y la recomendación.</t>
+  </si>
+  <si>
+    <t>Ana es genial. Estricta pero justa 🙂</t>
+  </si>
+  <si>
+    <t>Todas las preguntas y asesoramiento al instante. Comida, entrenamiento - detalladamente explicado. Moviliza e inspira de manera extraordinaria.</t>
+  </si>
+  <si>
+    <t>Te entras al ritmo, te quejas, y de repente, ¡wow! - ves y sientes el resultado. Super, lo recomiendo, voy a seguir entrenandome!</t>
+  </si>
+  <si>
+    <t>Alicia, Santander, España</t>
+  </si>
+  <si>
+    <t>El entrenamiento " NI "(nivel inicial) me gustó mucho. Cansancio agradable en los glúteos. Lo más importante es que apareció un dolor agradable en los glúteos, nunca antes había podido lograrlo. Mañana iré a trabajar con las piernas temblorosas.</t>
+  </si>
+  <si>
+    <t>Mónica, Alicante, España</t>
+  </si>
+  <si>
+    <t>100 burpees con un salto en 15 min. Hace 2 años no hubiera hecho ni 5. E incluso al comienzo del proyectono no me gustaba este tipo de ejercicio😄 ...</t>
+  </si>
+  <si>
+    <t>Raquel, España</t>
+  </si>
+  <si>
+    <t>¡Es el primer maratón!</t>
+  </si>
+  <si>
+    <t>La sensación en el primer día fue .... Si las palabras obscenas no se aplican, entonces no hay nada que decir 😑 🙄 pero ayer me llego la iluminación 🙄 😏 fue mucho más fácil, incluso me sentí como una atleta en algún aspecto. El ejercicio no fue muy difícil ( así me pareció una semana después</t>
+  </si>
+  <si>
+    <t>el menú es excelente, estoy pensando cómo comerlo todo.</t>
+  </si>
+  <si>
+    <t>Ana, gracias por tu paciencia, me alegro de haberte contactado. ¡Digo con confianza que estare contigo por mucho tiempo!</t>
+  </si>
+  <si>
+    <t>Carla, Barcelona, España</t>
+  </si>
+  <si>
+    <t>Ana, para ser honesta, he estado contigo durante un año🙂 pero a veces es como la primera vez😂🤔</t>
+  </si>
+  <si>
+    <t>Gracias a Dios, ya no tengo la sensación de que estoy rodando por el suelo como una oruga, por lo que a veces las manos tiemblan como a un alcohólico y también me entreno por las noches, descansando entre series puedo quedarme dormida en la alfombra 😴  😂</t>
+  </si>
+  <si>
+    <t>Y por el resto, GRACIAS por aparecer en mi vida e incluso si pudiera continuar entrenandome sola, me siento más emocionada y motivada contigo y con las chicas 💐🎈</t>
+  </si>
+  <si>
+    <t>Julia, Jaen, España</t>
+  </si>
+  <si>
+    <t>Yo, viendo un video del primer entrenamiento de NI, pensé que era muy fácil. Y soy, una "atleta", necesito al menos un nivel medio. 👌 Pero qué equivocada estaba. Apenas sobrevivi la primera semana. Dieta y raciones + dolor muscular.</t>
+  </si>
+  <si>
+    <t>Y esto es de un nivel de inicio. Sinceramente, estoy en shock por mi condición física. Ahora es la tercera semana que entreno, es mucho más fácil, incluso estoy esperando el momento para empezar a entrenar. Sí, y con la comida me estoy involucrando gradualmente. Aún así, la "secta" me estimula.</t>
+  </si>
+  <si>
+    <t>Y sí, después de ganar kilos de vacaciones, ya he perdido 2 kilos. Hurra!!!</t>
+  </si>
+  <si>
+    <t>Gracias, Ana, por hacer esto😍</t>
+  </si>
+  <si>
+    <t>Victoria, Málaga España</t>
+  </si>
+  <si>
+    <t>Dado que es hora de pensar en inscribirse en un nuevo curso, probablemente es hora de resumir. No sabía en absoluto qué esperar, mi decisión fue tomada de manera espontánea y voy a intentar ... Los primeros días fueron terriblemente difíciles. Me mantuve de la idea de que solo eran 28 días. Pero ya en la segunda semana comence a pensar que si tal vez seguire un mes mas ... sensaciones dolorosamente agradables aparecieron en el cuerpo. Y realmente, solo 30 minutos al día, en casa ... No es mortal, pero muy productivo. ¡Y quiero aun más!</t>
+  </si>
+  <si>
+    <t>Y, sin embargo, me interesa escuchar las opiniones de las chicas que han participado en el programa de entrenemiento durante más de un mes. Sus pensamientos, sensaciones, logros. Si,</t>
+  </si>
+  <si>
+    <t>Irene, Tenerife, España</t>
+  </si>
+  <si>
+    <t>Un poco de humor a nuestra conversación.</t>
+  </si>
+  <si>
+    <t>¡Y llegó el tercer día! Armagedón. Duele simplemente mantener las piernas rectas. Solo puedo inclinarme con las piernas dobladas, quejándome como una anciana. Aunque los ejercicios en sí al principio parecían muy simples. El lunes hice NI, pero agregue la serie favorita +  6 min los cardio de los mejores del mes pasado. Cancelé los descansos con indignación, la carga parecía insuficiente. Martes-NM, aunque las piernas ya temblaban agregue los cardio de nuevo. ¿Y por qué me parece durante el entrenamiento que puedo hacerlo todo? Quitándome el sombrero frente a Ana, no es un ejercicio, es una bomba de efecto retardado.</t>
+  </si>
+  <si>
+    <t>Fabiola, Cantabria</t>
+  </si>
+  <si>
+    <t>Recuerdo cómo casi me muero en la primera semana, gracias a las chicas por el apoyo . Ahora estoy haciendo ejercicios con placer y los niños se han entrenado conmigo y el gato siempre está ahí e incluso mi abuela trae una alfombra y hace alguito en el piso</t>
+  </si>
+  <si>
+    <t>Todo se convirtió en un placer y después del entrenamiento respiro con gran alivio. Un día sí y otro no con mi esposo voy al gimnasio y ya puedo levantar más peso, lo que también me agrada. Miro con satisfacción en el espejo ya que el cuerpo se reafirmado y los costados disminuyeron ahora no me veo como una oruga.</t>
+  </si>
+  <si>
+    <t>Gracias, Ana. Continuaré con mucho gusto.</t>
+  </si>
+  <si>
+    <t>Sandra, Alicante</t>
+  </si>
+  <si>
+    <t>Mi proyecto de fitness es una gran idea. ¡Lo principal es un buen entrenador! Ana es una explosión de energía y un mar de buen humor en cada momento. Ella sabe cómo inspirar para una hazaña. El proyecto es muy bueno, hay resultados. El primer mes he perdido 3,5 kg. Alimetos completos, no hay nada que considerar, la entrenadora lo hizo por nosotros. Ejercicios especiales, además de una nutrición adecuada: este es un buen estado de ánimo y ligereza en el cuerpo. * 9 + *</t>
+  </si>
+  <si>
+    <t>Valentina, Santander, Espana</t>
+  </si>
+  <si>
+    <t>Estoy en el proyecto por sexta semana. Decir que estoy encantada es no decir nada. El resultado superó las expectativas más audaces. Durante 5 semanas perdí 8 cm de la cintura y las caderas. Sin embargo, no me muero de hambre y no paso mucho tiempo entrenando. El proyecto encaja perfectamente en mi vida. ¡Además de todo, me siento genial, ha mejorado el cutis y ando de buen humor!!!</t>
+  </si>
+  <si>
+    <t>Elena, Valencia</t>
+  </si>
+  <si>
+    <t>Hasta que comencé a ejercitarme personalmente con un entrenador, nunca pensé que esto fuera necesario en absoluto. La idea del deporte era estándar, llegué al gimnasio, trote un poco, hice algo en los simuladores y, con total confianza y orgullo, hice el programa más útil y me fui a casa. Parecia que estaba cansada e incluso sudada ... pero después de haber decidido por sí misma hacer ejercicio bajo la supervisión de un entrenador, seleccione a un entrenador, como se muestra en las películas, joven y guapo))) que se ve muy bien y tiene muchos certificados. Y pensé que todo iba según el plan ... hasta que me di cuenta de que no había resultado, e incluso un poco de daño. Creo que muchos podrían enfrentar problemas de salud. ¡Pero tuve mucha suerte! Tenga en cuenta que la palabra "SUERTE", destaqué ... porque no se sabe qué pasaría si continuara entrenando más con ese entrenador. ¡Pero un profesional llego a nuestro club! Ana, me dio la vuelta a mi idea de entrenamiento personal, que puede ser no solo útil para el cuerpo y la salud, sino también interesante. Cada lección es siempre algo nuevo, completamente no estándar. No bombeamos mi cuerpo para que parezca un hombre, sino que perfeccionamos mi figura femenina. Lo llevamos a la perfección. Y lo más importante, es una oportunidad para participar en su proyecto en línea. Esto es muy disciplinario. Mi menú está programado, todo es lo más accesible posible. Aunque es dificil. Pero me siento como una verdadera atleta, y ya me veo responsable ante Ana porque ella es una verdadera entrenadora que puede juntar mis pensamientos y sintonizar con un resultado real. Por lo tanto, insto a todas las chicas. No postergue hasta mañana, lo que puede comenzar hoy.</t>
+  </si>
+  <si>
+    <t>Natalia, España</t>
+  </si>
+  <si>
+    <t>He estado entrenando con Ana la segunda semana y ya tengo menos 2 kg, con lo que estoy muy contenta👏 ¡con ningún entrenador he tenido este resultado!  Todavía hay mucho trabajo por delante. Ana es una gran profesional en el campo, ¡confío completamente en ella! Ella nos controla muy estrictamente, explica todo cómo y qué comer, habla sobre todos los ejercicios sobre qué y cómo funcionan, ¡para nosotros todo es muy inteligible y comprensible! Todavía es muy importante para mí que ella misma hizo un menú para nosotros, no tenemos que pensar cada vez qué comer y merendar, todo ya esta inventado. ¡Realmente me gusta mucho entrenar con Ana! Estoy muy contenta de haberme metido en su proyecto, ¡así que definitivamente nos hará adelgaditas!</t>
+  </si>
+  <si>
+    <t>Elena, España</t>
+  </si>
+  <si>
+    <t>Entré en el proyecto de Ana García el 6 de febrero de 2017, me propuse el objetivo de perder 8 kg, antes de eso ya había bajado 30 kg y el peso se había detenido, y después de las vacaciones de Año Nuevo incluso aumenté 3 kg, antes de eso solo estaba practicando el gimnasio y al pasar al lado de la sala, donde Ana daba clases de  entrenamiento, tenía miedo de entrar, pensé que nunca podría hacer eso. Pero superé el miedo y me inscribí en sus clases. Fui a la primera sesión de entrenamiento y todo el cuerpo tembló por dentro, pero después tuve un zumbido que no pude describir con palabras: me ardían las mejillas, no podía respirar, todo el cuerpo me temblaba, pero al mismo tiempo quería volver a experimentar esta sensacion. Realmente no me gusta cocinar, pero el menú que Ana nos enseño es muy sabroso, saludable y fácil de preparar (cocino una vez a la semana). Durante la primera semana de entrenamiento y PP, perdi 2.5 kg, esto es genial, y aún quedan 7 semanas por delante, tal vez incluso bajare mas de peso. Ana García es una persona muy buena y alegre, una excelente entrenadora y nuestra inspiradora me gusta que si tengo algo que no funciona,ella no me obliga a hacerlo, sino que reemplaza el ejercicio con el que puedo hacer en esta etapa. Ella me mostró de lo que mi cuerpo es capaz. Espero que durante el proyecto nos conozcamos mejor y seamos amigas, porque no solo tiene capacitación grupal, sino también proyectos en línea, por lo que no me detendré allí, siga mis comentarios, el 30 de marzo escribiré un informe sobre cómo fueron estas 7 semanas en compañía de 9 chicas maravillosas y nuestro gurú para esculpir nuestro cuerpo.</t>
+  </si>
+  <si>
+    <t>Lucía España</t>
+  </si>
+  <si>
+    <t>Me gusta mucho el maratón de fitness 👯 y definitivamente me quedaré para el próximo maratón con Ana todo está tan claro, comprensible y accesible para nosotras que tuve pocas preguntas adicionales, aunque solo fue al principio. Los comentarios son solo positivos, recomiendo a todas) Me volví más disciplinada😊, aprendí a planificar mi comida y no a merendar con cualquier cosa en casa o en el trabajo )) entrenamientos en casa, es una reforma) en casa hay un poco de tiempo, pero hay un resultado. Cada uno tendrá su propio resultado, lo principal es seguir las recomendaciones y no inventar nada 😊 Realmente quiero implantar y dejar durante mucho tiempo todo lo adquirido☺ P. S. a veces quiero comer algo muy dulce ))”</t>
   </si>
   <si>
     <t>9px;
@@ -1339,6 +1486,123 @@
   &lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
+    <t>Ana Fit</t>
+  </si>
+  <si>
+    <t>Tu entrenador personal</t>
+  </si>
+  <si>
+    <t>Proyecto internacional de fitness en línea</t>
+  </si>
+  <si>
+    <t>Fitness .. Estilo de vida .. Energía .. Resultado</t>
+  </si>
+  <si>
+    <t>Pilates</t>
+  </si>
+  <si>
+    <t>Ejercicios básicos de ballet</t>
+  </si>
+  <si>
+    <t>Nutrición apropiada</t>
+  </si>
+  <si>
+    <t>Menú equilibrado de nutrición apropiada</t>
+  </si>
+  <si>
+    <t>Entrenamiento de fitness</t>
+  </si>
+  <si>
+    <t>Programas de entrenamiento en casa y en el gimnasio.</t>
+  </si>
+  <si>
+    <t>Mi nombre es Ana Fit. Soy entrenadora.</t>
+  </si>
+  <si>
+    <t>Después de 15 años de practicar acrobacias deportivas y convertirme en un maestro del deporte en esta disciplina, sabía con certeza que mi vida estaría relacionada con el deporte y un estilo de vida saludable.</t>
+  </si>
+  <si>
+    <t>Me encanta lo que hago.</t>
+  </si>
+  <si>
+    <t>Puedo y sé cómo ayudar a las mujeres a obtener un cuerpo hermoso y saludable.</t>
+  </si>
+  <si>
+    <t>Escucho comentarios</t>
+  </si>
+  <si>
+    <t>positivos</t>
+  </si>
+  <si>
+    <t>de mis clientes.</t>
+  </si>
+  <si>
+    <t>Veo cómo el cuerpo cambia gracias al entrenamiento y la nutrición apropiada.</t>
+  </si>
+  <si>
+    <t>¡Una sonrisa del cliente es la recompensa principal!</t>
+  </si>
+  <si>
+    <t>No es difícil estar en buena forma.</t>
+  </si>
+  <si>
+    <t>¡Lo sé y te mostraré el camino!</t>
+  </si>
+  <si>
+    <t>¡Te espero en mi equipo!</t>
+  </si>
+  <si>
+    <t>MÁS INFORMACIÓN SOBRE MÍ</t>
+  </si>
+  <si>
+    <t>Lo que dicen mis clientes</t>
+  </si>
+  <si>
+    <t>- 11lb durante 2 meses en el programa, de hecho, los resultados son increíbles, verá cómo tu cintura se reduce y se derriten "cauchitos" en los costados. Aprenda a comer sano y rico y si llega a pecar lo hará con los alimentos correctos que no afectan la condición del cuerpo. Chicas es que deben probarlo, resultado garantizado : Delgadez, Elasticidad y Satisfacción personal. Por cierto, encontré a Ana en este grupo, es una pena que no haya sucedido antes.</t>
+  </si>
+  <si>
+    <t>Carmen España</t>
+  </si>
+  <si>
+    <t>-11lb за 2 месяца в программе, на самом деле, результаты потрясающее, вы увидите как ваша талия уменьшается и тает спасательный круг на боках, научитесь кушать то что нужно и вкусно, грешить если и будете, то правильными продуктами и не во вред состоянию тела. Попробуйте девочки, гарантированно железно: Стройность, Упругость и Удовлетворенность собой. Кстати я именно в этой группе Татьяну и нашла, жалко что раньше не случилось.</t>
+  </si>
+  <si>
+    <t>Curioso pero en solo un mes he cambiado radicalmente el gusto y los hábitos. Nunca abusé de la comida chatarra, pero me encantan los dulces y todo tipo de salsas. Y solía comer a toda prisa, mirando la tele, leyendo un libro o trabajando en la compu. Ahora, sabiendo que las porciones se han reducido al menos a la mitad, me emociono tanto con un plato de comida saludable, mastico cada bocado con tanto placer, disfruto y siento todos los matices del sabor…</t>
+  </si>
+  <si>
+    <t>Maria, Toledo, España</t>
+  </si>
+  <si>
+    <t>Maravilloso proyecto, gracias Ana! ¡Justo lo que necesito! Todo está muy organizado: entrenamientos, venús, informes, asesoría, correcciones y consejos del entrenador en forma individual. Para mí es el primer mes y lo más difícil para mí personalmente es hacer ejercicios todos los días. El menú es excelente, me alimentaba en el mismo modo antes de las vacaciones, pero los consejos sobre las porciones me abrieron los ojos. Continuaré con Ana ya que estoy segura de que el amor por el fitness se despertará en mi mientras tanto todo lo que hago es a fuerzas, pero lo intento muy bien y los resultados de las chicas del grupo son inspiradores.</t>
+  </si>
+  <si>
+    <t>Vanessa, Barcelona, España</t>
+  </si>
+  <si>
+    <t>He estado participando en este programa 6 mes. Inicialmente no tenía el objetivo de perder peso, pero me preguntaba si podía. Y sí, pude. El cuerpo realmente se tensa, y los músculos comienzan a aparecer. Empiezas a sentirte diferente, te vuelves más segura. Me enganché específicamente a este programa.¡Definitivamente no podrás engañar al entrenador! Aunque físicamente no está al lado pero su presencia siempre se siente. Definitivamente recomiendo!</t>
+  </si>
+  <si>
+    <t>Clara, Madrid, España</t>
+  </si>
+  <si>
+    <t>Este programa también me ayudó a revisar mi nutrición y cocina. Había seguido otros programas antes, pero no se observó una pérdida de peso significativa. Fue difícil comenzar, pero al mismo momento interesante. Y los resultados no se hacen esperar. Algunos dicen que son perezosos o que un entrenador puede ser engañado ... Pero usted está practicando para sí mismo. Después de todo, necesitas un vientre plano y unas nalgas atractivas. Un entrenador no perderá peso ni engordará por tu engaño. Ya he perdido 10 kg, aunque pensé que nunca bajaría de peso.</t>
+  </si>
+  <si>
+    <t>Claudia.31 años. Valencia, España</t>
+  </si>
+  <si>
+    <t>Este proyecto realmente funciona, participe en 2 proyectos. No hay excusas para ser saludable, estas son realmente solo nuestras excusas ...</t>
+  </si>
+  <si>
+    <t>Fue duro, NO ...</t>
+  </si>
+  <si>
+    <t>Ines Fernández</t>
+  </si>
+  <si>
+    <t>TODOS LOS COMENTARIOS</t>
+  </si>
+  <si>
     <t>9px;
   }
   h1 {
@@ -2043,276 +2307,12 @@
   &lt;script type="text/javascript"&gt;document.body.className = document.body.className.replace("siteorigin-panels-before-js", "");&lt;/script&gt;
   &lt;/body&gt;&lt;/html&gt;</t>
   </si>
-  <si>
-    <t>Al contenido</t>
-  </si>
-  <si>
-    <t>Ana Fit</t>
-  </si>
-  <si>
-    <t>Tu entrenador personal</t>
-  </si>
-  <si>
-    <t>Proyecto internacional de fitness en línea</t>
-  </si>
-  <si>
-    <t>Fitness .. Estilo de vida .. Energía .. Resultado</t>
-  </si>
-  <si>
-    <t>Pilates</t>
-  </si>
-  <si>
-    <t>Ejercicios básicos de ballet</t>
-  </si>
-  <si>
-    <t>Nutrición apropiada</t>
-  </si>
-  <si>
-    <t>Menú equilibrado de nutrición apropiada</t>
-  </si>
-  <si>
-    <t>Entrenamiento de fitness</t>
-  </si>
-  <si>
-    <t>Programas de entrenamiento en casa y en el gimnasio.</t>
-  </si>
-  <si>
-    <t>Mi nombre es Ana Fit. Soy entrenadora.</t>
-  </si>
-  <si>
-    <t>Después de 15 años de practicar acrobacias deportivas y convertirme en un maestro del deporte en esta disciplina, sabía con certeza que mi vida estaría relacionada con el deporte y un estilo de vida saludable.</t>
-  </si>
-  <si>
-    <t>Me encanta lo que hago.</t>
-  </si>
-  <si>
-    <t>Puedo y sé cómo ayudar a las mujeres a obtener un cuerpo hermoso y saludable.</t>
-  </si>
-  <si>
-    <t>Escucho comentarios</t>
-  </si>
-  <si>
-    <t>positivos</t>
-  </si>
-  <si>
-    <t>de mis clientes.</t>
-  </si>
-  <si>
-    <t>Veo cómo el cuerpo cambia gracias al entrenamiento y la nutrición apropiada.</t>
-  </si>
-  <si>
-    <t>¡Una sonrisa del cliente es la recompensa principal!</t>
-  </si>
-  <si>
-    <t>No es difícil estar en buena forma.</t>
-  </si>
-  <si>
-    <t>¡Lo sé y te mostraré el camino!</t>
-  </si>
-  <si>
-    <t>¡Te espero en mi equipo!</t>
-  </si>
-  <si>
-    <t>MÁS INFORMACIÓN SOBRE MÍ</t>
-  </si>
-  <si>
-    <t>Lo que dicen mis clientes</t>
-  </si>
-  <si>
-    <t>- 11lb durante 2 meses en el programa, de hecho, los resultados son increíbles, verá cómo tu cintura se reduce y se derriten "cauchitos" en los costados. Aprenda a comer sano y rico y si llega a pecar lo hará con los alimentos correctos que no afectan la condición del cuerpo. Chicas es que deben probarlo, resultado garantizado : Delgadez, Elasticidad y Satisfacción personal. Por cierto, encontré a Ana en este grupo, es una pena que no haya sucedido antes.</t>
-  </si>
-  <si>
-    <t>Opiniones</t>
-  </si>
-  <si>
-    <t>Carmen España</t>
-  </si>
-  <si>
-    <t>-11lb за 2 месяца в программе, на самом деле, результаты потрясающее, вы увидите как ваша талия уменьшается и тает спасательный круг на боках, научитесь кушать то что нужно и вкусно, грешить если и будете, то правильными продуктами и не во вред состоянию тела. Попробуйте девочки, гарантированно железно: Стройность, Упругость и Удовлетворенность собой. Кстати я именно в этой группе Татьяну и нашла, жалко что раньше не случилось.</t>
-  </si>
-  <si>
-    <t>Curioso pero en solo un mes he cambiado radicalmente el gusto y los hábitos. Nunca abusé de la comida chatarra, pero me encantan los dulces y todo tipo de salsas. Y solía comer a toda prisa, mirando la tele, leyendo un libro o trabajando en la compu. Ahora, sabiendo que las porciones se han reducido al menos a la mitad, me emociono tanto con un plato de comida saludable, mastico cada bocado con tanto placer, disfruto y siento todos los matices del sabor…</t>
-  </si>
-  <si>
-    <t>Maria, Toledo, España</t>
-  </si>
-  <si>
-    <t>Maravilloso proyecto, gracias Ana! ¡Justo lo que necesito! Todo está muy organizado: entrenamientos, venús, informes, asesoría, correcciones y consejos del entrenador en forma individual. Para mí es el primer mes y lo más difícil para mí personalmente es hacer ejercicios todos los días. El menú es excelente, me alimentaba en el mismo modo antes de las vacaciones, pero los consejos sobre las porciones me abrieron los ojos. Continuaré con Ana ya que estoy segura de que el amor por el fitness se despertará en mi mientras tanto todo lo que hago es a fuerzas, pero lo intento muy bien y los resultados de las chicas del grupo son inspiradores.</t>
-  </si>
-  <si>
-    <t>Vanessa, Barcelona, España</t>
-  </si>
-  <si>
-    <t>He estado participando en este programa 6 mes. Inicialmente no tenía el objetivo de perder peso, pero me preguntaba si podía. Y sí, pude. El cuerpo realmente se tensa, y los músculos comienzan a aparecer. Empiezas a sentirte diferente, te vuelves más segura. Me enganché específicamente a este programa.¡Definitivamente no podrás engañar al entrenador! Aunque físicamente no está al lado pero su presencia siempre se siente. Definitivamente recomiendo!</t>
-  </si>
-  <si>
-    <t>Clara, Madrid, España</t>
-  </si>
-  <si>
-    <t>Este programa también me ayudó a revisar mi nutrición y cocina. Había seguido otros programas antes, pero no se observó una pérdida de peso significativa. Fue difícil comenzar, pero al mismo momento interesante. Y los resultados no se hacen esperar. Algunos dicen que son perezosos o que un entrenador puede ser engañado ... Pero usted está practicando para sí mismo. Después de todo, necesitas un vientre plano y unas nalgas atractivas. Un entrenador no perderá peso ni engordará por tu engaño. Ya he perdido 10 kg, aunque pensé que nunca bajaría de peso.</t>
-  </si>
-  <si>
-    <t>Claudia.31 años. Valencia, España</t>
-  </si>
-  <si>
-    <t>Este proyecto realmente funciona, participe en 2 proyectos. No hay excusas para ser saludable, estas son realmente solo nuestras excusas ...</t>
-  </si>
-  <si>
-    <t>Fue duro, NO ...</t>
-  </si>
-  <si>
-    <t>Ines Fernández</t>
-  </si>
-  <si>
-    <t>TODOS LOS COMENTARIOS</t>
-  </si>
-  <si>
-    <t>El resultado de cualquier actividad es la gratitud de las personas con las que trabajas en una idea, por un solo propósito. He hecho mucho trabajo y ahora estoy feliz y orgullosa de presentarles comentarios sobre el proyecto de fitness, cuyo objetivo es una mujer moderna, exitosa y segura de sí misma. Este proyecto ha ayudado a muchas mujeres a creer en sí mismas, en sus propias fuerzas, a cambiar para mejor, a encontrar las formas deseadas, a aprender a comer de manera apropiada y saludable.</t>
-  </si>
-  <si>
-    <t>Comentarios sobre el programa de fitness.</t>
-  </si>
-  <si>
-    <t>Amanda, Winnipeg, Canadá</t>
-  </si>
-  <si>
-    <t>Acabo de terminar un proyecto. Durante mucho tiempo busqué algo similar y finalmente, gracias a mi amiga Natalia por la perseverancia y la recomendación.</t>
-  </si>
-  <si>
-    <t>Ana es genial. Estricta pero justa 🙂</t>
-  </si>
-  <si>
-    <t>Todas las preguntas y asesoramiento al instante. Comida, entrenamiento - detalladamente explicado. Moviliza e inspira de manera extraordinaria.</t>
-  </si>
-  <si>
-    <t>Te entras al ritmo, te quejas, y de repente, ¡wow! - ves y sientes el resultado. Super, lo recomiendo, voy a seguir entrenandome!</t>
-  </si>
-  <si>
-    <t>Alicia, Santander, España</t>
-  </si>
-  <si>
-    <t>El entrenamiento " NI "(nivel inicial) me gustó mucho. Cansancio agradable en los glúteos. Lo más importante es que apareció un dolor agradable en los glúteos, nunca antes había podido lograrlo. Mañana iré a trabajar con las piernas temblorosas.</t>
-  </si>
-  <si>
-    <t>Mónica, Alicante, España</t>
-  </si>
-  <si>
-    <t>100 burpees con un salto en 15 min. Hace 2 años no hubiera hecho ni 5. E incluso al comienzo del proyectono no me gustaba este tipo de ejercicio😄 ...</t>
-  </si>
-  <si>
-    <t>Raquel, España</t>
-  </si>
-  <si>
-    <t>¡Es el primer maratón!</t>
-  </si>
-  <si>
-    <t>La sensación en el primer día fue .... Si las palabras obscenas no se aplican, entonces no hay nada que decir 😑 🙄 pero ayer me llego la iluminación 🙄 😏 fue mucho más fácil, incluso me sentí como una atleta en algún aspecto. El ejercicio no fue muy difícil ( así me pareció una semana después</t>
-  </si>
-  <si>
-    <t>el menú es excelente, estoy pensando cómo comerlo todo.</t>
-  </si>
-  <si>
-    <t>Ana, gracias por tu paciencia, me alegro de haberte contactado. ¡Digo con confianza que estare contigo por mucho tiempo!</t>
-  </si>
-  <si>
-    <t>Carla, Barcelona, España</t>
-  </si>
-  <si>
-    <t>Ana, para ser honesta, he estado contigo durante un año🙂 pero a veces es como la primera vez😂🤔</t>
-  </si>
-  <si>
-    <t>Gracias a Dios, ya no tengo la sensación de que estoy rodando por el suelo como una oruga, por lo que a veces las manos tiemblan como a un alcohólico y también me entreno por las noches, descansando entre series puedo quedarme dormida en la alfombra 😴  😂</t>
-  </si>
-  <si>
-    <t>Y por el resto, GRACIAS por aparecer en mi vida e incluso si pudiera continuar entrenandome sola, me siento más emocionada y motivada contigo y con las chicas 💐🎈</t>
-  </si>
-  <si>
-    <t>Julia, Jaen, España</t>
-  </si>
-  <si>
-    <t>Yo, viendo un video del primer entrenamiento de NI, pensé que era muy fácil. Y soy, una "atleta", necesito al menos un nivel medio. 👌 Pero qué equivocada estaba. Apenas sobrevivi la primera semana. Dieta y raciones + dolor muscular.</t>
-  </si>
-  <si>
-    <t>Y esto es de un nivel de inicio. Sinceramnte, estoy en shock por mi condición física. Ahora es la tercera semana que entreno, es mucho más fácil, incluso estoy esperando el momento para empiezar a entrenar. Sí, y con la comida me estoy involucrando gradualmente. Aún así, la "secta" me estimula.</t>
-  </si>
-  <si>
-    <t>Y sí, después de ganar kilos de vacaciones, ya he perdido 2 kilos. Hurra!!!</t>
-  </si>
-  <si>
-    <t>Gracias, Ana, por hacer esto😍</t>
-  </si>
-  <si>
-    <t>Victoria, Málaga España</t>
-  </si>
-  <si>
-    <t>Dado que es hora de pensar en inscribirse en un nuevo curso, probablemente es hora de resumir. No sabía en absoluto qué esperar, mi decisión fue tomada de manera espontánea y voy a intentar ... Los primeros días fueron terriblemente difíciles. Me mantuve de la idea de que solo eran 28 días. Pero ya en la segunda semana comence a pensar que si tal vez seguire un mes mas ... sensaciones dolorosamente agradables aparecieron en el cuerpo. Y realmente, solo 30 minutos al día, en casa ... No es mortal, pero muy productivo. ¡Y quiero aun más!</t>
-  </si>
-  <si>
-    <t>Y, sin embargo, me interesa escuchar las opiniones de las chicas que han participado en el programa de entrenemiento durante más de un mes. Sus pensamientos, sensaciones, logros. Si,</t>
-  </si>
-  <si>
-    <t>Irene, Tenerife, España</t>
-  </si>
-  <si>
-    <t>Un poco de humor a nuestra conversación.</t>
-  </si>
-  <si>
-    <t>¡Y llegó el tercer día! Armagedón. Duele simplemente mantener las piernas rectas. Solo puedo inclinarme con las piernas dobladas, quejándome como una anciana. Aunque los ejercicios en sí al principio parecían muy simples. El lunes hice NI, pero agrege la serie favorita +  6 min los cardio de los mejores del mes pasado. Cancelé los descansos con indignación, la carga parecía insuficiente. Martes-NM, aunque las piernas ya temblaban agregue los cardio de nuevo. ¿Y por qué me parece durante el entrenamiento que puedo hacerlo todo? Quitándome el sombrero frente a Ana, no es un ejercicio, es una bomba de efecto retardado.</t>
-  </si>
-  <si>
-    <t>Fabiola, Cantabria</t>
-  </si>
-  <si>
-    <t>Recuerdo cómo casi me muero en la primera semana, gracias a las chicas por el apoyo . Ahora estoy haciendo ejercicios con placer y los niños se han entrenado conmigo y el gato siempre está ahí e incluso mi abuela trae una alfombra y hace alguito en el piso</t>
-  </si>
-  <si>
-    <t>Todo se convirtió en un placer y después del entrenamiento respiro con gran alivio. Un día sí y otro no con mi esposo voy al gimnasio y ya puedo levantar más peso, lo que también me agrada. Miro con satisfacción en el espejo ya que el cuerpo se reafirmado y los costados disminuyeronahora no me veo como una oruga.</t>
-  </si>
-  <si>
-    <t>Gracias, Ana. Continuaré con mucho gusto.</t>
-  </si>
-  <si>
-    <t>Sandra, Alicante</t>
-  </si>
-  <si>
-    <t>Mi proyecto de fitness es una gran idea. ¡Lo principal es un buen entrenador! Ana es una explosión de energía y un mar de buen humor en cada momento. Ella sabe cómo inspirar para una hazaña. El proyecto es muy bueno, hay resultados. El primer mes he perdido 3,5 kg. Alimetos completos, no hay nada que considerar, la entrenadora lo hizo por nosotros. Ejercicios especiales, además de una nutrición adecuada: este es un buen estado de ánimo y ligereza en el cuerpo. * 9 + *</t>
-  </si>
-  <si>
-    <t>Valentina, Santander, Espana</t>
-  </si>
-  <si>
-    <t>Estoy en el proyecto por sexta semana. Decir que estoy encantada es no decir nada. El resultado superó las expectativas más audaces. Durante 5 semanas perdí 8 cm de la cintura y las caderas. Sin embargo, no me muero de hambre y no paso mucho tiempo entrenando. El proyecto encaja perfectamente en mi vida. ¡Además de todo, me siento genial, ha mejorado el cutis y ando de buen humor!!!</t>
-  </si>
-  <si>
-    <t>Elena, Valencia</t>
-  </si>
-  <si>
-    <t>Hasta que comencé a ejercitarme personalmente con un entrenador, nunca pensé que esto fuera necesario en absoluto. La idea del deporte era estándar, llegué al gimnasio, trote un poco, hice algo en los simuladores y, con total confianza y orgullo, hice el programa más útil y me fui a casa. Parecia que estaba cansada e incluso sudada ... pero después de haber decidido por sí misma hacer ejercicio bajo la supervisión de un entrenador, seleccione a un entrenador, como se muestra en las películas, joven y guapo))) que se ve muy bien y tiene muchos certificados. Y pensé que todo iba según el plan ... hasta que me di cuenta de que no había resultado, e incluso un poco de daño. Creo que muchos podrían enfrentar problemas de salud. ¡Pero tuve mucha suerte! Tenga en cuenta que la palabra "SUERTE", destaqué ... porque no se sabe qué pasaría si continuara entrenando más con ese entrenador. ¡Pero un profesional llego a nuestro club! Ana, me dio la vuelta a mi idea de entrenamiento personal, que puede ser no solo útil para el cuerpo y la salud, sino también interesante. Cada lección es siempre algo nuevo, completamente no estándar. No bombeamos mi cuerpo para que parezca un hombre, sino que perfeccionamos mi figura femenina. Lo llevamos a la perfección. Y lo más importante, es una oportunidad para participar en su proyecto en línea. Esto es muy disciplinario. Mi menú está programado, todo es lo más accesible posible. Aunque es dificil. Pero me siento como una verdadera atleta, y ya me veo responsable ante Ana porque ella es una verdadera entrenadora que puede juntar mis pensamientos y sintonizar con un resultado real. Por lo tanto, insto a todas las chicas. No postergue hasta mañana, lo que puede comenzar hoy.</t>
-  </si>
-  <si>
-    <t>Natalia, España</t>
-  </si>
-  <si>
-    <t>He estado entrenando con Ana la segunda semana y ya tengo menos 2 kg, con lo que estoy muy contenta👏 ¡con ningún entrenador he tenido este resultado!  Todavía hay mucho trabajo por delante. Ana es una gran profesional en el campo, ¡confío completamente en ella! Ella nos controla muy estrictamente, explica todo cómo y qué comer, habla sobre todos los ejercicios sobre qué y cómo funcionan, ¡para nosotros todo es muy inteligible y comprensible! Todavía es muy importante para mí que ella misma hizo un menú para nosotros, no tenemos que pensar cada vez qué comer y merendar, todo ya esta inventado. ¡Realmente me gusta mucho entrenar con Ana! Estoy muy contenta de haberme metido en su proyecto, ¡así que definitivamente nos hará adelgaditas!</t>
-  </si>
-  <si>
-    <t>Elena, España</t>
-  </si>
-  <si>
-    <t>Entré en el proyecto de Ana García el 6 de febrero de 2017, me propuse el objetivo de perder 8 kg, antes de eso ya había bajado 30 kg y el peso se había detenido, y después de las vacaciones de Año Nuevo incluso aumenté 3 kg, antes de eso solo estaba practicando el gimnasio y al pasar al lado de la oficina, donde Ana daba clases de  entrenamiento, tenía miedo de mirar allí, pensé que nunca podría hacer eso. Pero superé el miedo y me inscribí en sus clases. Fui a la primera sesión de entrenamiento y todo el cuerpo tembló por dentro, pero después tuve un zumbido que no pude describir con palabras: me ardían las mejillas, no podía respirar, todo el cuerpo me temblaba, pero al mismo tiempo quería volver a experimentar esta sensacion. Realmente no me gusta cocinar, pero el menú que Ana nos enseño es muy sabroso, saludable y fácil de preparar (cocino una vez a la semana). Durante la primera semana de entrenamiento y PP, perdi 2.5 kg, esto es genial, y aún quedan 7 semanas por delante, tal vez incluso bajare mas de peso. Ana García es una persona muy buena y alegre, una excelente entrenadora y nuestra inspiradora me gusta que si tengo algo que no funciona,ella no me obliga a hacerlo, sino que reemplaza el ejercicio con el que puedo hacer en esta etapa. Ella me mostró de lo que mi cuerpo es capaz. Espero que durante el proyecto nos conozcamos mejor y seamos amigas, porque no solo tiene capacitación grupal, sino también proyectos en línea, por lo que no me detendré allí, siga mis comentarios, el 30 de marzo escribiré un informe sobre cómo fueron estas 7 semanas en compañía de 9 chicas maravillosas y nuestro gurú para esculpir nuestro cuerpo.</t>
-  </si>
-  <si>
-    <t>Lucía España</t>
-  </si>
-  <si>
-    <t>Me gusta mucho el maratón de fitness 👯 y definitivamente me quedaré para el próximo maratón con Ana todo está tan claro, comprensible y accesible para nosotras que tuve pocas preguntas adicionales, aunque solo fue al principio. Los comentarios son solo positivos, recomiendo a todas) Me volví más disciplinada😊, aprendí a planificar mi comida y no a merendar con cualquier cosa en casa o en el trabajo )) entrenamientos en casa, es una reforma) en casa hay un poco de tiempo, pero hay un resultado. Cada uno tendrá su propio resultado, lo principal es seguir las recomendaciones y no inventar nada 😊 Realmente quiero implantar y dejar durante mucho tiempo todo lo adquirido☺ P. S. a veces quiero comer algo muy dulce ))”</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2341,15 +2341,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
     <font>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2443,17 +2442,17 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6123,3028 +6122,528 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="158.71"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="11"/>
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="11"/>
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="11"/>
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="11"/>
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="11"/>
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="11"/>
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="11"/>
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="11"/>
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="11"/>
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="11"/>
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="11"/>
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="11"/>
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="11"/>
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="11"/>
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="11"/>
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="11"/>
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="11"/>
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="11"/>
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="11"/>
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="11"/>
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="11"/>
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="11"/>
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="11"/>
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="11"/>
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="11"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="11"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="11"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="11"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="11"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="11"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="11"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="11"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="11"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="11"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="11"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="11"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="11"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="11"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="11"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="11"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="11"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="11"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="11"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="11"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="11"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="11"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="11"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="11"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="11"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="11"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="11"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="11"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="11"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="11"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="11"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="11"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="11"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="11"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="11"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="11"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="11"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="11"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="11"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="11"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="11"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="11"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="11"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="11"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="11"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="11"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="11"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="11"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="11"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="11"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="11"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="11"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="11"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="11"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="11"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="11"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="11"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="11"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="11"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="11"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="11"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="11"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="11"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="11"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="11"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="11"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="11"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="11"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="11"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="11"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="11"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="11"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="11"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="11"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="11"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="11"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="11"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="11"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="11"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="11"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="11"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="11"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="11"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="11"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="11"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="11"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="11"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="11"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="11"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="11"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="11"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="11"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="11"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="11"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="11"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="11"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="11"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="11"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="11"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="11"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="11"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="11"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="11"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="11"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="11"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="11"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="11"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="11"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="11"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="11"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="11"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="11"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="11"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="11"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="11"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="11"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="11"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="11"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="11"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="11"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="11"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="11"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="11"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="11"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="11"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="11"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="11"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="11"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="11"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="11"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="11"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="11"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="11"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="11"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="11"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="11"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="11"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="11"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="11"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="11"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="11"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="11"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="11"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="11"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="11"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="11"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="11"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="11"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="11"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="11"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="11"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="11"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="11"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="11"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="11"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="11"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="11"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="11"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="11"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="11"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="11"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="11"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="11"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="11"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="11"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="11"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="11"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="11"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="11"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="11"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="11"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="11"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="11"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="11"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="11"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="11"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="11"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="11"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="11"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="11"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="11"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="11"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="11"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="11"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="11"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="11"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="11"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="11"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="11"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="11"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="11"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="11"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="11"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="11"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="11"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="11"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="11"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="11"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="11"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="11"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="11"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="11"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="11"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="11"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="11"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="11"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="11"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="11"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="11"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="11"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="11"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="11"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="11"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="11"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="11"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="11"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="11"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="11"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="11"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="11"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="11"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="11"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="11"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="11"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="11"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="11"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="11"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="11"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="11"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="11"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="11"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="11"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="11"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="11"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="11"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="11"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="11"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="11"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="11"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="11"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="11"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="11"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="11"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="11"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="11"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="11"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="11"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="11"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="11"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="11"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="11"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="11"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="11"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="11"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="11"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="11"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="11"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="11"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="11"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="11"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="11"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="11"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="11"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="11"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="11"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="11"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="11"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="11"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="11"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="11"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="11"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="11"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="11"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="11"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="11"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="11"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="11"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="11"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="11"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="11"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="11"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="11"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="11"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="11"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="11"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="11"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="11"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="11"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="11"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="11"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="11"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="11"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="11"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="11"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="11"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="11"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="11"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="11"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="11"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="11"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="11"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="11"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="11"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="11"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="11"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="11"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="11"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="11"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="11"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="11"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="11"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="11"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="11"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="11"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="11"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="11"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="11"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="11"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="11"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="11"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="11"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="11"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="11"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="11"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="11"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="11"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="11"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="11"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="11"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="11"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="11"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="11"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="11"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="11"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="11"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="11"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="11"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="11"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="11"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="11"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="11"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="11"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="11"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="11"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="11"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="11"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="11"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="11"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="11"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="11"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="11"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="11"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="11"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="11"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="11"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="11"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="11"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="11"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="11"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="11"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="11"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="11"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="11"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="11"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="11"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="11"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="11"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="11"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="11"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="11"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="11"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="11"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="11"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="11"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="11"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="11"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="11"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="11"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="11"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="11"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="11"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="11"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="11"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="11"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="11"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="11"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="11"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="11"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="11"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="11"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="11"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="11"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="11"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="11"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="11"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="11"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="11"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="11"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="11"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="11"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="11"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="11"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="11"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="11"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="11"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="11"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="11"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="11"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="11"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="11"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="11"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="11"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="11"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="11"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="11"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="11"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="11"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="11"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="11"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="11"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="11"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="11"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="11"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="11"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="11"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="11"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="11"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="11"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="11"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="11"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="11"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="11"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="11"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="11"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="11"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="11"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="11"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="11"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="11"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="11"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="11"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="11"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="11"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="11"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="11"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="11"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="11"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="11"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="11"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="11"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="11"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="11"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="11"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="11"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="11"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="11"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="11"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="11"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="11"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="11"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="11"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="11"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="11"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="11"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="11"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="11"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="11"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="11"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="11"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="11"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="11"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="11"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="11"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="11"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="11"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="11"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="11"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="11"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="11"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="11"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="11"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="11"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="11"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="11"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="11"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="11"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="11"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="11"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="11"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="11"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="11"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="11"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="11"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="11"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="11"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="11"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="11"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="11"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="11"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="11"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="11"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="11"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="11"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="11"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="11"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="11"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="11"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="11"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="11"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="11"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="11"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="11"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="11"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="11"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="11"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="11"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="11"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="11"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="11"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="11"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="11"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="11"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="11"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="11"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="11"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="11"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="11"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="11"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="11"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="11"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="11"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="11"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="11"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="11"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="11"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="11"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="11"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="11"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="11"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="11"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="11"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="11"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="11"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="11"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="11"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="11"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="11"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="11"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="11"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="11"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="11"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="11"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="11"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="11"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="11"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="11"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="11"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="11"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="11"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="11"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="11"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="11"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="11"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="11"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="11"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="11"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="11"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="11"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="11"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="11"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="11"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="11"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="11"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="11"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="11"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="11"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="11"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="11"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="11"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="11"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="11"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="11"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="11"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="11"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="11"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="11"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="11"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="11"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="11"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="11"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="11"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="11"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="11"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="11"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="11"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="11"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="11"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="11"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="11"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="11"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="11"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="11"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="11"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="11"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="11"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="11"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="11"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="11"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="11"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="11"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="11"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="11"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="11"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="11"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="11"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="11"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="11"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="11"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="11"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="11"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="11"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="11"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="11"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="11"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="11"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="11"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="11"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="11"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="11"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="11"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="11"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="11"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="11"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="11"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="11"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="11"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="11"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="11"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="11"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="11"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="11"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="11"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="11"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="11"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="11"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="11"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="11"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="11"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="11"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="11"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="11"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="11"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="11"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="11"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="11"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="11"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="11"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="11"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="11"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="11"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="11"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="11"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="11"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="11"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="11"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="11"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="11"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="11"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="11"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="11"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="11"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="11"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="11"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="11"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="11"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="11"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="11"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="11"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="11"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="11"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="11"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="11"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="11"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="11"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="11"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="11"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="11"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="11"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="11"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="11"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="11"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="11"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="11"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="11"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="11"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="11"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="11"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="11"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="11"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="11"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="11"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="11"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="11"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="11"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="11"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="11"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="11"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="11"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="11"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="11"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="11"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="11"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="11"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="11"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="11"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="11"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="11"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="11"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="11"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="11"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="11"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="11"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="11"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="11"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="11"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="11"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="11"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="11"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="11"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="11"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="11"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="11"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="11"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="11"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="11"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="11"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="11"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="11"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="11"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="11"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="11"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="11"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="11"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="11"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="11"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="11"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="11"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="11"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="11"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="11"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="11"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="11"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="11"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="11"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="11"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="11"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="11"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="11"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="11"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="11"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="11"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="11"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="11"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="11"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="11"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="11"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="11"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="11"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="11"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="11"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="11"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="11"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="11"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="11"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="11"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="11"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="11"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="11"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="11"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="11"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="11"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="11"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="11"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="11"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="11"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="11"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="11"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="11"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="11"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="11"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="11"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="11"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="11"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="11"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="11"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="11"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="11"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="11"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="11"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="11"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="11"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="11"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="11"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="11"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="11"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="11"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="11"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="11"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="11"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="11"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="11"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="11"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="11"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="11"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="11"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="11"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="11"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="11"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="11"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="11"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="11"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="11"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="11"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="11"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="11"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="11"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="11"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="11"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="11"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="11"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="11"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="11"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="11"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="11"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="11"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="11"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="11"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="11"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="11"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="11"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="11"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="11"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="11"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="11"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="11"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="11"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="11"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="11"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="11"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="11"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="11"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="11"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="11"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="11"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="11"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="11"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="11"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="11"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="11"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="11"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="11"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="11"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="11"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="11"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="11"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="11"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="11"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="11"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="11"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="11"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="11"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="11"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="11"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="11"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="11"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="11"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="11"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="11"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="11"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="11"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="11"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="11"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="11"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="11"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="11"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="11"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="11"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="11"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="11"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="11"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="11"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="11"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="11"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="11"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="11"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="11"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="11"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="11"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="11"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="11"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="11"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="11"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="11"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="11"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="11"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="11"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="11"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="11"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="11"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="11"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="11"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="11"/>
+      <c r="A61" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9160,9 +6659,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="126.86"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
@@ -9171,61 +6667,59 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>60</v>
+      <c r="A3" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="11"/>
@@ -12217,7 +9711,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12243,8 +9737,8 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>71</v>
+      <c r="A5" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12253,7 +9747,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12262,7 +9756,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12271,7 +9765,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12280,7 +9774,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -12289,7 +9783,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12298,7 +9792,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12307,7 +9801,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12316,7 +9810,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12325,7 +9819,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12343,7 +9837,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -12352,7 +9846,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -12370,7 +9864,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -12379,7 +9873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -12388,7 +9882,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -12397,7 +9891,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -12406,7 +9900,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -12415,7 +9909,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -12424,7 +9918,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -12433,7 +9927,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -12442,7 +9936,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -12451,7 +9945,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12460,7 +9954,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -12469,7 +9963,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -12478,7 +9972,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -12487,7 +9981,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12496,7 +9990,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12505,7 +9999,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12514,7 +10008,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12523,7 +10017,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12532,7 +10026,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12541,7 +10035,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12550,7 +10044,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12559,7 +10053,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12568,7 +10062,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12577,7 +10071,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12586,7 +10080,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12595,7 +10089,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12604,7 +10098,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12613,7 +10107,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12622,7 +10116,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12631,7 +10125,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12640,7 +10134,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12649,7 +10143,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12658,7 +10152,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12716,527 +10210,3032 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="158.71"/>
+    <col customWidth="1" min="1" max="1" width="126.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
+      <c r="A57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
+      <c r="A58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
+      <c r="A59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
+      <c r="A60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="11"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="11"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="11"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="11"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="11"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="11"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="11"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="11"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="11"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="11"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="11"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="11"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="11"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="11"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="11"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="11"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="11"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="11"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="11"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="11"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="11"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="11"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="11"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="11"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="11"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="11"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="11"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="11"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="11"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="11"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="11"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="11"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="11"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="11"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="11"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="11"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="11"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="11"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="11"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="11"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="11"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="11"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="11"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="11"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="11"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="11"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="11"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="11"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="11"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="11"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="11"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="11"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="11"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="11"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="11"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="11"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="11"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="11"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="11"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="11"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="11"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="11"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="11"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="11"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="11"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="11"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="11"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="11"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="11"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="11"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="11"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="11"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="11"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="11"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="11"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="11"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="11"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="11"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="11"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="11"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="11"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="11"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="11"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="11"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="11"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="11"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="11"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="11"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="11"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="11"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="11"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="11"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="11"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="11"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="11"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="11"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="11"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="11"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="11"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="11"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="11"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="11"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="11"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="11"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="11"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="11"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="11"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="11"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="11"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="11"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="11"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="11"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="11"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="11"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="11"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="11"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="11"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="11"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="11"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="11"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="11"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="11"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="11"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="11"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="11"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="11"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="11"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="11"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="11"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="11"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="11"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="11"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="11"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="11"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="11"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="11"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="11"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="11"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="11"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="11"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="11"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="11"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="11"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="11"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="11"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="11"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="11"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="11"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="11"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="11"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="11"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="11"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="11"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="11"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="11"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="11"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="11"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="11"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="11"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="11"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="11"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="11"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="11"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="11"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="11"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="11"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="11"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="11"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="11"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="11"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="11"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="11"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="11"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="11"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="11"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="11"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="11"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="11"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="11"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="11"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="11"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="11"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="11"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="11"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="11"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="11"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="11"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="11"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="11"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="11"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="11"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="11"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="11"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="11"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="11"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="11"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="11"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="11"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="11"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="11"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="11"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="11"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="11"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="11"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="11"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="11"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="11"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="11"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="11"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="11"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="11"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="11"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="11"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="11"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="11"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="11"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="11"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="11"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="11"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="11"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="11"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="11"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="11"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="11"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="11"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="11"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="11"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="11"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="11"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="11"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="11"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="11"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="11"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="11"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="11"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="11"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="11"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="11"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="11"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="11"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="11"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="11"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="11"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="11"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="11"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="11"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="11"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="11"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="11"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="11"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="11"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="11"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="11"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="11"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="11"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="11"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="11"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="11"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="11"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="11"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="11"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="11"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="11"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="11"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="11"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="11"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="11"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="11"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="11"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="11"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="11"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="11"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="11"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="11"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="11"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="11"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="11"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="11"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="11"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="11"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="11"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="11"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="11"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="11"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="11"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="11"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="11"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="11"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="11"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="11"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="11"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="11"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="11"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="11"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="11"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="11"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="11"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="11"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="11"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="11"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="11"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="11"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="11"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="11"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="11"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="11"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="11"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="11"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="11"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="11"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="11"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="11"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="11"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="11"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="11"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="11"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="11"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="11"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="11"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="11"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="11"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="11"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="11"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="11"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="11"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="11"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="11"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="11"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="11"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="11"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="11"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="11"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="11"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="11"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="11"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="11"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="11"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="11"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="11"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="11"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="11"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="11"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="11"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="11"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="11"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="11"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="11"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="11"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="11"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="11"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="11"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="11"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="11"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="11"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="11"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="11"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="11"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="11"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="11"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="11"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="11"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="11"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="11"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="11"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="11"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="11"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="11"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="11"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="11"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="11"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="11"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="11"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="11"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="11"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="11"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="11"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="11"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="11"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="11"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="11"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="11"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="11"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="11"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="11"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="11"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="11"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="11"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="11"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="11"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="11"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="11"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="11"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="11"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="11"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="11"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="11"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="11"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="11"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="11"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="11"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="11"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="11"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="11"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="11"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="11"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="11"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="11"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="11"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="11"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="11"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="11"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="11"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="11"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="11"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="11"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="11"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="11"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="11"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="11"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="11"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="11"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="11"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="11"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="11"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="11"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="11"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="11"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="11"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="11"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="11"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="11"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="11"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="11"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="11"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="11"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="11"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="11"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="11"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="11"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="11"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="11"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="11"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="11"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="11"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="11"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="11"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="11"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="11"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="11"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="11"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="11"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="11"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="11"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="11"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="11"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="11"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="11"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="11"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="11"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="11"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="11"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="11"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="11"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="11"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="11"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="11"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="11"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="11"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="11"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="11"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="11"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="11"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="11"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="11"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="11"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="11"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="11"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="11"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="11"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="11"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="11"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="11"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="11"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="11"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="11"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="11"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="11"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="11"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="11"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="11"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="11"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="11"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="11"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="11"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="11"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="11"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="11"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="11"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="11"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="11"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="11"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="11"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="11"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="11"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="11"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="11"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="11"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="11"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="11"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="11"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="11"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="11"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="11"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="11"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="11"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="11"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="11"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="11"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="11"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="11"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="11"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="11"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="11"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="11"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="11"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="11"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="11"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="11"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="11"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="11"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="11"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="11"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="11"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="11"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="11"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="11"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="11"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="11"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="11"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="11"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="11"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="11"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="11"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="11"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="11"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="11"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="11"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="11"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="11"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="11"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="11"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="11"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="11"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="11"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="11"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="11"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="11"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="11"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="11"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="11"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="11"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="11"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="11"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="11"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="11"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="11"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="11"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="11"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="11"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="11"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="11"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="11"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="11"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="11"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="11"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="11"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="11"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="11"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="11"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="11"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="11"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="11"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="11"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="11"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="11"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="11"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="11"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="11"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="11"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="11"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="11"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="11"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="11"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="11"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="11"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="11"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="11"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="11"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="11"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="11"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="11"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="11"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="11"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="11"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="11"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="11"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="11"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="11"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="11"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="11"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="11"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="11"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="11"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="11"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="11"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="11"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="11"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="11"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="11"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="11"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="11"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="11"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="11"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="11"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="11"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="11"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="11"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="11"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="11"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="11"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="11"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="11"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="11"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="11"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="11"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="11"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="11"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="11"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="11"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="11"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="11"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="11"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="11"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="11"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="11"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="11"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="11"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="11"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="11"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="11"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="11"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="11"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="11"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="11"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="11"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="11"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="11"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="11"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="11"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="11"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="11"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="11"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="11"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="11"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="11"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="11"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="11"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="11"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="11"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="11"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="11"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="11"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="11"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="11"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="11"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="11"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="11"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="11"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="11"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="11"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="11"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="11"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="11"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="11"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="11"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="11"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="11"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="11"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="11"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="11"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="11"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="11"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="11"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="11"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="11"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="11"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="11"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="11"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="11"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="11"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="11"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="11"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="11"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="11"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="11"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="11"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="11"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="11"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="11"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="11"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="11"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="11"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="11"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="11"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="11"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="11"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="11"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="11"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="11"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="11"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="11"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="11"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="11"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="11"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="11"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="11"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="11"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="11"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="11"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="11"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="11"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="11"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="11"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="11"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="11"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="11"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="11"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="11"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="11"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="11"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="11"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="11"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="11"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="11"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="11"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="11"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="11"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="11"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="11"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="11"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="11"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="11"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="11"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="11"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="11"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="11"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="11"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="11"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="11"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="11"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="11"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="11"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="11"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="11"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="11"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="11"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="11"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="11"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="11"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="11"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="11"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="11"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="11"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="11"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="11"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="11"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="11"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="11"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="11"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="11"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="11"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="11"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="11"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="11"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="11"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="11"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="11"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="11"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="11"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="11"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="11"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="11"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="11"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="11"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="11"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="11"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="11"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="11"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="11"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="11"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="11"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="11"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="11"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="11"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="11"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="11"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="11"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="11"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="11"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="11"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="11"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="11"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="11"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="11"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="11"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="11"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="11"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="11"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="11"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="11"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="11"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="11"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="11"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="11"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="11"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="11"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="11"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="11"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="11"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="11"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="11"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="11"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="11"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="11"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="11"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="11"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="11"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="11"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="11"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="11"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="11"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="11"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="11"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="11"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="11"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="11"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="11"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="11"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="11"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="11"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="11"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="11"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="11"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="11"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="11"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="11"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="11"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="11"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="11"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="11"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="11"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="11"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="11"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="11"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="11"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="11"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="11"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="11"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="11"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="11"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="11"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="11"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="11"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="11"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="11"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="11"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="11"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="11"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="11"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="11"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="11"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="11"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="11"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="11"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="11"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="11"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="11"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="11"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="11"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="11"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="11"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="11"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="11"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="11"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="11"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="11"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="11"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="11"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="11"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="11"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="11"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
